--- a/data/hotels_by_city/Dallas/Dallas_shard_107.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_107.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="948">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Karen D</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
   </si>
   <si>
     <t>We were quite pleased with Champaine at the front desk. She had a radiating smile and instantly made us feel comfortable and at ease. She complied with our requests and went out of her way to help with questions for local attractions. We found out at check out that she was a very ill girl for that evening but we couldn't even tell. Thank you Champaine, you are an asset for facility and for any boss in the future. Keep up the outstanding work.More</t>
+  </si>
+  <si>
+    <t>Andrew P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r581555725-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -219,6 +225,9 @@
 The breakfast nook is fairly large, but can get busy and crowded during the peak 8-9 AM window. It is also only stocked from...This is a large hotel with large rooms/suites at a reasonable price. We stayed three nights over a weekend. It was nice to have a room with a sofa, desk, and closet, in addition to a small dresser. A good-size (44" or so), wall-mounted TV was also included, albeit with no on-screen programming guide that we could find.There is an outside pool and Jacuzzi that looked popular with the kids. A small workout room has a couple Stairmasters, a stationary bicycle, and universal gym. There is also a pay washer and dryer on the 2nd floor. The desk staff was prompt and courteous, and they even have a security guard, on-site, during the late evening hours even though there didn't appear to be a need in this quiet commercial area surrounded by 4-5 other hotels.Our plumbing, refrigerator, alarm clock, and microwave worked well, although the hair dryer didn't work. Housekeeping was OK, but they missed our room after we occupied it past noon one day and another day they forgot to take the dirty towels we had left in the bath tub. The closet door also wouldn't close as it was mis-aligned with its frame. These were relatively minor issues, although we were inconvenienced with a 1.5 hour power outage during our second night.The breakfast nook is fairly large, but can get busy and crowded during the peak 8-9 AM window. It is also only stocked from 6:30-9:30 AM, although the attendant did a good job keeping it clean and neat. Coffee is available 24/7. All told, given the large rooms, convenient location, good parking, and reasonable rates, we would stay here again.More</t>
   </si>
   <si>
+    <t>biglisadavis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r581453182-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>We arrived to the area on May 13th for a one week vacation.  Debbie kindly checked us in an gave us our keys.  The room was super clean and felt good with the quiet air cooler.  The entire start was great.  Debbie felt like family to us.  Her smiles and friendliness were uplifting.  The final night, there was a power outage in the area that affected all of the hotels and houses in the area.  It lasted about an hour.  Debbie was on shift and handled the matters so professionally and helped keep everyone calm.  After an hour, the power was back up and things were back to normal.  We STRONGLY suggest that others stay here.  The staff are all easy to talk to and ready to help you.  Great security through the night.  They even help give people ideas of what to do in the area.  We can't wait to came back.  It just helps the vacation feel that much more perfect.More</t>
   </si>
   <si>
+    <t>7700gman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r580927970-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>Two of the clerks were very helpful during my stay. First, Debbie helped me find the best" surface street" route to my company's office. Freeways in the DFW area can be challenging for the non-resident, and she was empathetic to my concerns. She was very friendly and service oriented.Second, Champaine, (yes, that is her real name) helped me with a laundry issue. Near the end of my stay I needed to wash my clothes, but the hotel's guest drier was out of service. Champaine (Cheers!) allowed this traveler to use the hotel laundry so I didn't have to go out and find a laundry mat.The service I received at this hotel was above and beyond what could be reasonably expected. Thank you!More</t>
   </si>
   <si>
+    <t>AaressLawless</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r580690745-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>As an event planner, I'm always concerned about making sure that my guests have a WONDERFUL experience. The Comfort Suites at North Fossil Creek has gone over and above my expectations each time I've housed a group there. Last week, we had 15 rooms booked and my guests were so welcomed and cared for by the staff at the hotel. Lucy, Debbie, Jennifer, and team, THANK YOU!More</t>
   </si>
   <si>
+    <t>L G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r578145268-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>Stayed w my family, and was awakened at 3 am by a man trying to enter our room. The security latch was the onky thing that stopped him.  The front desk gave him a key to our room!! My kids were so shaken up by this that they couldnt sleep the rest of the night.   This has never happened at any hotel ive ever stayed in.More</t>
   </si>
   <si>
+    <t>70roygarcia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r577446809-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -321,6 +342,9 @@
     <t>Debbie was a wonderful delight. She made me feel at home. Very courteous and kind. Thank you for employing her. She is a great asset to your company. I will continue to stay at this hotel every time I visit this area.More</t>
   </si>
   <si>
+    <t>David_N_DNESS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r566279333-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>My Business Team home base for the last 8 months. We had a group of 14 people supporting a large project in Fort Worth area. This Hotel treated us right, always friendly and accommodating. Easy location to get around Fort Worth. Clean rooms, large breakfast and Hospitality evenings.  Even offered a daily "Grab and Go" bag of snack bar, fruit and a drink as you go out the door daily.Excellent prices for any business planning and multiple night reservations.More</t>
   </si>
   <si>
+    <t>Timothy K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r565930473-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>This is the second time I have stayed here for Business. Great friendly staff, breakfast is great. Rooms are very nice. Walking distance to several restaurants so no need to drive. Big Thanks to Debbie and the staff.More</t>
   </si>
   <si>
+    <t>Christina D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r558197706-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t>I LOVE THIS LOCATION MORE THAN ANY OTHER. THE STAFF HERE ARE THE BEST. I CONSIDER THEM AS MY 2ND FAMILY. I HAVE GOTTEN CLOSEST TO MS.DEBBIE. This woman is very caring, helpful, polite, and a very hard-worker. I love her happy personality. I can honestly that I have never seen Debbie in a bad mood, frustrated, annoyed or even rude to a single person, and I've been staying at this hotel for a long while. I DEFINATELY ALWAYS RECOMMEND THIS HOTEL TO ALL MY FAMILY, FRIENDS, AND THE DFW METROPLEX. Thank you for  the best hospitality ever. THANK YOU MS.DEBBIE, LUCY, MOHAMMUD, JENNIFER, AND CHAMPAGNE. Ya'll make the perfect team/crew.More</t>
   </si>
   <si>
+    <t>Paul H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r556778606-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -417,6 +450,9 @@
     <t>We were shocked at the size of the room here, usually hotel rooms are small and cramped feeling but this was a room we actually wanted to be in. Debbie at the front desk was very helpful and friendly, giving me toothpaste, a comb and a shower cap for my daughter on three separate trips with a smile and a genuine thanks for staying here. I would recommend this place for anyone staying in the Fort Worth/ Dallas area.</t>
   </si>
   <si>
+    <t>Zoe E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r550900929-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -441,6 +477,9 @@
     <t>Great workers especially Debbie! So caring and helpful when it came to directions and local tourist attractions! Overall great stay. The staff kept the rooms, halls &amp; lobby clean. The breakfast was great &amp; staff was caring. More</t>
   </si>
   <si>
+    <t>Lindsi H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r548939788-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -462,6 +501,9 @@
     <t>Very accommodating staff a woman named Debbie checked us in and was very polite and helpful and so was champaine in the morning just to a lesser extent. The room was very clean and very quiet and altogether great place to stay.More</t>
   </si>
   <si>
+    <t>Eric K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r548933221-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -477,6 +519,9 @@
     <t>I was so impressed with the lady at the front desk named Debbie. Whe went out of her way to ask us how we were doing and the best part was it actually seemed like she cared. And anything i needed ahe went above and beyond to make sure we were taken care of. If only all places had customer service reps like her but unfortunately nowadays that is very rareMore</t>
   </si>
   <si>
+    <t>Jeffrey K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r545868531-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -501,6 +546,9 @@
     <t>Champagne, the young lady that checked me in was delightful. She was inviting and very cheerful.  Everything in the motel was meticulously well kept. The rooms were large and clean. Internet was fast and the beds comfortable.More</t>
   </si>
   <si>
+    <t>Ce123456</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r543906075-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -519,6 +567,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>debstar402004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r541976168-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -543,6 +594,9 @@
     <t>Miss Debbie was awesome at the front desk. She answered all of my questions and was very friendly. Breakfast was very good, a variety of food to eat. Someone friendly always greeted us as we came back in.More</t>
   </si>
   <si>
+    <t>Arcy V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r541881021-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -561,6 +615,9 @@
     <t>Debbie at the front desk is so helpful and friendly, always asking how are day was. The food is tasty. The rooms are so clean, always stay here for business. The staff is friendly. The pool is clean. Stay here for business at least 4 or 5 times a year, they remember us all the time. I recommend this place to everyone. Restaurants are near IHOP, TEXAS ROADHOUSE, AND REDNECK HEAVENMore</t>
   </si>
   <si>
+    <t>Joe F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r541157441-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -579,6 +636,9 @@
     <t>Well my vehicle broke down so I was stuck here for 5 nights. I consider myself very lucky as I found this hotel. I am a diamond member which means I’ve stayed in Choice hotels over 50 nights a year. This is definitely in my top 5 favorites. Friendly staff, especially Heather! What a positive attitude and beautiful smile after a bad day. The rooms are clean and spotless, and the breakfast is delicious. Quiet rooms, big screen TV. I really can’t find a downfall with this hotel. The Manager even greeted me on day 4 with a friendly welcome and smile. Great job with this hotel Choice!More</t>
   </si>
   <si>
+    <t>Marie K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r534662670-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -633,6 +693,9 @@
     <t>The rooms and amenities are nice here. But really makes this Comfort Suites a wonderful place to stay are the lovely people that work there. Especially my new friend, Ms.Debbie. She really cares about the guests here. She made sure that my boyfriend and I got a good deal along with my boyfriends Choice Rewards that he has earned. Especially since we always get the jacuzzi suite. I love it. So, here's to Ms.Debbie, " THANK YOU FOR ALL OF YOUR CARING SUPPORT AND FOR MAKING SURE THAT WE'RE ALL GOOD. YOU REALLY ARE A SWEET AND SPECIAL PERSON."MAY GOD BLESS YOU, LUCY, ALISHA, MOHAMMED, AND THE BLONDE GIRL THAT WORKS DAYS SOMETIMES. Sorry I don't know her name. But you all keep up your good work.More</t>
   </si>
   <si>
+    <t>melmel6755</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r517842654-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -651,6 +714,9 @@
     <t>Debbie at front desk went above and beyond after we had an unfortunate experience at the Lake Worth location. Will definitely return just because of her! Hot tub at lake Worth was out of service but thankfully was able to book a room with care and concern with Debbie at Fossil Creek! More</t>
   </si>
   <si>
+    <t>Tim B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r510586554-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -673,6 +739,9 @@
   </si>
   <si>
     <t>The rooms are nice and clean and the staff is friendly. However, three cars were broken into that I know of over two days. One was a coworker whose tools were stolen. The cop said he used to work undercover and there's a lot of bad people in the area. If you stay here, DO NOT leave anything in your vehicle. I will not be back.More</t>
+  </si>
+  <si>
+    <t>KB013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r508381005-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -704,6 +773,9 @@
 Upon entering the room which was a good size everything looked ok. I went to shower, there was hair every where in the tub. I don't mean one or two. There were several! Ok, I can get past that. Pulled back the comforters and sheets. Please see pictures below. I didn't bother to take pics of the yellow spots or black smudges. So called front desk. They don't have extra comforters so they bring up a horrible blanket. The manager didn't want to take the comforters down. Her words were "I don't want to touch it because...I want to start off by saying that I always check TripAdvisor for the reviews posted. This is how I choose my hotels and restaurants when visiting places. TripAdvisor has really let me down with stay. There are some really great reviews with this hotel. However,  my party didn't have such an experience. We arrived late to check in which wasn't the problem as we expected to be late. The girl at  the desk was a little strange. She insisted that she needed to swipe our credit card even though we were paying cash. We understood that we would neeed to put a $60 deposit, again not a problem. But I still don't understand why they needed to swipe our card again. If that's policy I totally understand,  but like I said she acted strange like she wasn't sure of the policy herself. Upon entering the room which was a good size everything looked ok. I went to shower, there was hair every where in the tub. I don't mean one or two. There were several! Ok, I can get past that. Pulled back the comforters and sheets. Please see pictures below. I didn't bother to take pics of the yellow spots or black smudges. So called front desk. They don't have extra comforters so they bring up a horrible blanket. The manager didn't want to take the comforters down. Her words were "I don't want to touch it because that looks like human fluids". Are you kidding me???? My entire family touched that comforter before I spotted that on the inside. Thanks cleaning staff, you knew what you were doing. The blanket they brought had cigarette burns. Didn't bother to eat breakfast. Explained to the morning staff all of our problems and they offered 5000 points to our account.  they were apologetic and kind. However a few days later the points weren't there and they had to be called to remind them to put it on there. By the way, you can tell me that I have it mistaken and I am talking about another hotel because you can find my name. It is in fact your hotel. I pride myself on being honest and accurate. So don't try to dismiss my experience as if it happened somewhere else. More</t>
   </si>
   <si>
+    <t>g m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r506317399-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -722,6 +794,9 @@
     <t>Ok we usually stay at ci&amp;s when traveling they are usually clean, well maintained and affordable. This one has me just about ready to write the whole chain off. First of all the young lady at the front desk  had me concerned b/c she needed to swipe my card for this and that and I get that but it was the way she said "uh yeah" "uh ok" so it had me a little concerned to had over my card to her. So we get to our room there are tiny, curly,black hairs in the bathtub. Ok we looked over that and just sprayed lysol. But when we went to  lay down we looked at the comforters and that was too much! Yellow stains, what looked to be blood stains and black marks on them. So we called the front desk and explained what was going on she said they don't have more comforters so she can bring blankets. She brought the blankets to the room said she would leave the comforters here so they could be "accounted for" but just a couple sentences later said "I don't know what's on those and I didn't bring the cart and don't want to touch that" Really??? We had to,the guests, to move them off the bed. One of the blankets brought had a cigarette burn in it so we had them bring us another blanket. After all this there was no...Ok we usually stay at ci&amp;s when traveling they are usually clean, well maintained and affordable. This one has me just about ready to write the whole chain off. First of all the young lady at the front desk  had me concerned b/c she needed to swipe my card for this and that and I get that but it was the way she said "uh yeah" "uh ok" so it had me a little concerned to had over my card to her. So we get to our room there are tiny, curly,black hairs in the bathtub. Ok we looked over that and just sprayed lysol. But when we went to  lay down we looked at the comforters and that was too much! Yellow stains, what looked to be blood stains and black marks on them. So we called the front desk and explained what was going on she said they don't have more comforters so she can bring blankets. She brought the blankets to the room said she would leave the comforters here so they could be "accounted for" but just a couple sentences later said "I don't know what's on those and I didn't bring the cart and don't want to touch that" Really??? We had to,the guests, to move them off the bed. One of the blankets brought had a cigarette burn in it so we had them bring us another blanket. After all this there was no way we were going to eat there in the morning. We explained all the issues  to the employees at the front desk, as well as what I presume to be the gm,in the morning and while they were apologetic, although blamed "new staff" and offered "points" it is still disappointing to have to deal with such things. Unacceptable for any hotel. I read the reviews for this hotel they are very good, this is the reason we picked this particular one to stay at, I see the gm responds to all reviews as well, leading me to believe they value guests. Unfortunately, I am unable to say good things about this hotel. We didn't have the good experience that others have.More</t>
   </si>
   <si>
+    <t>FatFlash</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r506027920-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -740,6 +815,9 @@
     <t>I normally would like to stay at a comfort suites but this place has really changed my opinion. The first thing that happened to my aunt is we sent her to get the room ready and the woman who was there didn't make any sense about anything. Then we went to the room and things were OK and then we saw stains and smudges on the comforters (both) so we called down to the front desk and they brought up some new ones. We set them up and we See that some still have stains and smears but the thing that was the worst is that there was a cigarette burn in one set of sheets(both blankets)even though we got 2 sets of sheets one was fine there are even stains on the curtain, third set of sheets after we got new ones, ceiling, and in the bathtub.I only gave 1 stars because the size of the room is amazing for a hotel room. But there is no way that I would give a good review and this has been a horrible stay. (Don't come)More</t>
   </si>
   <si>
+    <t>Dawn B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r500067646-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -764,6 +842,9 @@
     <t>Awesome stay....I love this hotel and their staff....I will stay here every time I'm in town....Love the cleanliness and the hot tub and pool....Customer Service was AWESOME.....Champagne and Debbie were AMAZING Ladies....They both went way and beyond the call of  duty especially when I left my glasses in the room after checkout....Awesome awesome awesome....Thank you ladiesMore</t>
   </si>
   <si>
+    <t>D'Ann H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r497711485-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -785,6 +866,9 @@
     <t>We are spoiled every time we come to comfort suites. The beds are so comfortable with down comforter, 5 fluffy pillows, thus you do get a good nights sleep, the rooms are clean and they have great AC from the Texas heat. The staff if awesome Jennifer, Debbie, and Champagne, if you need anything they are on it. More</t>
   </si>
   <si>
+    <t>mrforkks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r494257836-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -809,6 +893,9 @@
     <t>I don't write reviews but i felt it was important in this case! I've been here for several weeks and couldn't recommend it more highly...from the ladies that clean the rooms all the way up to the general manager they treat you like family!! It has been a absolute pleasure. And a special shout out to debbie(front desk) And my main man....Roberto!!!(maintenance)...he's so helpful, professional and treats people like family! This is a wonderful place!More</t>
   </si>
   <si>
+    <t>ChaWanda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r492560764-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -833,6 +920,9 @@
     <t>We had reservations at another hotel in the area, but the hotel was not clean. I immediately called to see if there were any vacancies at this location. I spoke to Debbie and she was ready to accommodate my family. Debbie provided exceptional customer service and it was a pleasure to meet her. My family enjoyed my our stay at this hotel. The hotel was very clean and the breakfast was filling. We will definitely be back! Also hats off to Debbie for going above and beyond to make sure her customers are happy. More</t>
   </si>
   <si>
+    <t>Adam P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r488318596-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -860,6 +950,9 @@
     <t>Stayed here for 2 nights while road tripping around Texas. Room was clean, very spacious and comfortable. Liked the separate area for the mini-fridge and microwave. Breakfast was good and included waffles, cooked eggs and sausages. Used the business center to print boarding passes for a flight the following day. Location was convenient (despite all the highway construction) to the Stockyards and other Ft. Worth attractions. Note the sign in the room that says that linens will only be changed every 3 days unless you request otherwise. Upon returning after the 1st day, housekeeping did not come to our room at all. Not sure if it had to do with that sign or the fact that we slept in that morning, having arrived very late the previous night. Although the "no new linens" wasn't a big deal, we thought they would've at least come and made the beds. In any case, overall everything was very good and we'd stay again if in the area.More</t>
   </si>
   <si>
+    <t>Amanda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r472093980-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -887,6 +980,9 @@
     <t>Facility was clean, staff were nice, and enjoyed the outdoor hot tub. Uber trips to the Stockyards in early evening cost around $11-12, and $12-15 around 1:30am. If you wait until 2 it jumps to $40+. Would definitely recommend this location!More</t>
   </si>
   <si>
+    <t>Tanderso1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r468424663-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -911,6 +1007,9 @@
     <t>Our 1st stay  was in 2014 &amp; now 2016. When we arrived we were greeted by Kimberly at the front desk who welcomed us and and advised happy hour will be starting shortly once we get settled and come back down. The second night we met  Debbie at happy hour &amp; check out who wanted ensured we were okau &amp; had breakfast before heading out. BREAFAST was a variety of options to choose from. HAPPY HOUR was very mello. And the rooms are still comfortable &amp; clean. We will return.More</t>
   </si>
   <si>
+    <t>Diane B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r467931130-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -929,6 +1028,9 @@
     <t>My sister and I recently travelled with our brother who had  knee surgery in Fort Worth. We stayed at the Comfort Suites because the hotel we originally booked,  had overbooked and couldn't accommodate us. We were actually glad the other hotel overbooked because our stay at the Comfort Suites from beginning to end was great. Kimberly, was so accommodating and friendly at check in. We enjoyed a hot breakfast every morning as well as a midweek, mini dinner buffet, prepared by Debbie, another friendly and caring employee.  Southern hospitality at its finest.More</t>
   </si>
   <si>
+    <t>TopofTXtraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r466770343-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -953,6 +1055,9 @@
     <t>Stayed for 1 night recently on a road trip with my family and enjoyed the place.  Decor is clean and relatively current.  It is well maintained and comfortable.  The suites are really 1 room with a sofa bed area in addition to the usual sleeping area, but the space was functional, clean, comfortable, and quiet.  We stayed on the second floor but heard no room to room or floor to floor noise.  Beds were a little on the softer side for our tastes, but still comfy.  Breakfast area was a bit crowded, occupying a space in the lobby area that may be a bit small for the purpose at peak times.  The food was what you expect in a mid-range hotel -- good to get you started, but nothing fancy.What really stood out were the helpful staff, particularly a very nice lady named Debbie at the front desk.  She was there when we checked in and when we checked out.  In fact, our daughter left some things behind and she called us within an hour of checkout to let us know what they had found.  She also made arrangements for us to pick those things up on our way back (or would have sent them to us if needed.). Debbie is a 5 star employee who went out of her way to make certain we had a great stay!  We will definitely visit again.More</t>
   </si>
   <si>
+    <t>jc0nnelly805</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r446077511-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -980,6 +1085,9 @@
     <t>I travel across the country, and look for hotels that offer food options. I stayed from Mon-Thurs for Business. This hotel  advertised: Breakfast, Hot meals 3 nights a week with Happy Hour.  Breakfast was cold, and looked left over from days prior.  The Juices were so watered down, they barely had color left in them to prove they may have started as OJ, or Apple juice.  AND what meal at night?  Tuesday, we waited til past 7:30 for them to put out a single Bowl of Pasta with Tomato sauce (barely enough to feed 5 of us) Salad with NO salad dressing.  And one of the girls provided 3 beers to us...(I think out of her personal stash) as there was not any beverages provided for happy hour.  The rooms were clean, but They sure didn't offer what I went there for when choosing a hotel for the week.More</t>
   </si>
   <si>
+    <t>mcmill87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r444510456-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1007,6 +1115,9 @@
     <t>My two cousins and I stayed here for a girls weekend in from Chicago, when we arrived Debbie checked us in and was so sweet!  While we were waiting for our uber in the lobby we were able to enjoy more of Debbie's company!  The hotel was very clean and comfortable and I would definitely stay here again!More</t>
   </si>
   <si>
+    <t>robin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r431287432-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1142,9 @@
     <t>We have been staying here for 5 years now for the Fort Worth Livestock and Rodeo. and love it. The rooms are clean and everyone on the staff always makes you feel welcomed and go out of their way to help you. Its located in a safe area, our vehicles have never been messed with.The lady at the desk helped us find the back way to the stockshow, so we could avoid all of the construction on the interstates. We are planning to stay here this year:)More</t>
   </si>
   <si>
+    <t>texastraveler072572</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r431196975-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1052,6 +1166,9 @@
     <t>We stayed here 10/22/16.  For the price is was a good stay.  Don't expect 4 star amenities, but the beds were comfortable, the rooms were clean, the staff were courteous and the breakfast was ok.   Someone staying with us got the room with a hot tub and didn't use the hot tub because it was cracked and the bottom slip mats in the tub were coming off so she doesn't recommend the extra cost for that upgrade.  There was a lot of construction around the hotel so it was a little difficult to get to during the construction.  The hot tub outside was out of order.  If you are just wanted a nice comfortable place to sleep for the night this is worth the money.  It cost us around $11.50 to uber to the ft worth stockyards.More</t>
   </si>
   <si>
+    <t>Jim P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r429182013-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1076,6 +1193,9 @@
     <t>From October 6th-9th 2016, a group of Recon Marines from Vietnam held their annual reunion at the Comfort Suites North Fossil Creek, 3751 Tanacross Drive, Fort Worth, Texas. Everyone from the young lady who helped us with booking rates and reserving a Hospitality Room, to the checking-in clerks, was a pleasure.  The rooms are spacious, have a refrigerator, breakfast nook, and comfortable TV viewing area, in addition to either a king sized bed or two queen sized beds. Our overall experience was excellent.More</t>
   </si>
   <si>
+    <t>Pettit5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r425319533-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1100,6 +1220,9 @@
     <t>We stayed at Comfort Suites because of the $84 online special we found.  Pics looked good and the site said excellent, but we were terribly misled.  There were homeless people sleeping on the steps, a man in a stolen Nissan Pathfinder in the parking lot, a woman fighting with her pimp under the awning near the front doors and a game of poker in the parking lot across the street by a bunch of drinking twenty-somethings.  Then, we saw the room... The toilet seat was not attached and when I sat on the edge of the bed the opposite side came off the ground.  The light fixtures were not attached and the walls were dirty too.  I believe the hotel was nice in its day and they are doing their best to keep busy, but the community is just not a good one and not safe.  I don't think it is the staffs fault, but probably management.  We will never stay there again.More</t>
   </si>
   <si>
+    <t>565692</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r418483045-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1130,6 +1253,9 @@
     <t>The receptionist were very friendly &amp; helpful, the hotel was very clean room were large and the beds very comfortable..management was very warm and helpful.They have good breakfast you have good choices from, I has a great stay. thanks for everything...would recommend highly...More</t>
   </si>
   <si>
+    <t>Thomas L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r415751537-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1154,6 +1280,9 @@
     <t>This older property is well-located just south of I-820 on the north edge of Ft. Worth, but road construction at the 1-820/I-35 interchange makes it difficult to get to from the north or south. The property itself is fairly well-maintained, up-to-date, and clean. Our large double queen room was on the first floor. It had a somewhat moldy/musty smell and the bathroom vent made a huge squealing noise. Otherwise, it was OK. They need more luggage carts (or people need  to return the ones they have after using them). The breakfast was good, better than most places in this price range. Overall, a good value.More</t>
   </si>
   <si>
+    <t>J.D. S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r398206055-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1181,6 +1310,9 @@
     <t>Great place to stay anytime! Always clean. Always smells great. The staff are very courteous and helpful.  Truck parking is available on the main street.  The pool is clean, as well as the hot tub. Breakfast is good. All the normal food, plus. Enjoy your stay.More</t>
   </si>
   <si>
+    <t>Matt0321</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r380380179-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1208,6 +1340,9 @@
     <t>Not anywhere I would recommend.  Too many issues to even list.  Simply avoid.  Not for a family.  WiFi doesn't work.  Dirty.  Tons of mold on the ceilings and on the doors.  The door hinges were all rusted, and the counter tops were dirty.  The water pressure was awful and the water only gets luke warm.  Reminiscent of a low budget motel you would stay in at Spring Break on the beach......if you were 21 and broke.More</t>
   </si>
   <si>
+    <t>Kidsonvacation22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r380378927-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1226,6 +1361,9 @@
     <t>The rooms were old.  Period.  Nothing more nothing less.  Hole in the closet door, mold on the ceiling in the shower and the sheets were stained.  Bath tub stopper broken.  The breakfast was simply OK for just a basic breakfast I guess?  Again, really wouldn't recommend for any type of lengthy stay.  Over night just to lay your head......maybe?  But definitely not a place that you would bring a family for any kind of extended stay.  WiFi does not work.  Every guest we spoke with was having serious problems with WiFi.  If you depend on WiFi for business, don't stay here.More</t>
   </si>
   <si>
+    <t>bedie4040</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r380320471-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1238,6 +1376,9 @@
     <t>We have had our family the last five year and are book for next year's reunion and are booked  for next year's reunion . any time I am in Fort Worth, Texas,Comfort Suits North Fossil Creek, 3752 Tanacross  Dr.,is where I or we stay  The reason I stay, ever one and every thing is great, from the Manager, Front  Desk,the Staff, Breakfast, the Rooms, and the Hotel.</t>
   </si>
   <si>
+    <t>Cathy Jeff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r379371288-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1256,6 +1397,9 @@
     <t>I stayed at this hotel several times, including almost 2 weeks straight the last visit.  The rooms are comfortable and kept clean.  Jennifer at the front desk did an awesome job handling the mess I made out of my last reservations.  Her and the rest of the staff were very responsive to any question or request that we had.  Sylvia did a great job keeping the morning breakfast hot and filled.  It was unfortunate that she had to work so hard keeping other peoples messes cleaned up, but she did a good job there as well.Overall, I was very satisfied with my stay, and will stay here again.More</t>
   </si>
   <si>
+    <t>Soraya S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r375271085-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1298,6 +1442,9 @@
     <t>I booked ten rooms here for a group in May 2016 and this hotel was unbelievably gracious. Lucy and the manager on duty in the evenings went out of their way to make my group feel welcome and even had special food treats out in the lobby for them in the evenings. I look forward to booking more stays here in the future!More</t>
   </si>
   <si>
+    <t>Josh S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r374665146-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1316,6 +1463,9 @@
     <t>Little late on the review but I stayed here overnight with a couple people while we were checking out the area for living and we enjoyed the stay here. The room was in great condition, very clean, friendly staff, and was located in a good spot.More</t>
   </si>
   <si>
+    <t>SaraD81956</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r371510037-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1343,6 +1493,9 @@
     <t>This is a very nice hotel.  Great staff - warm and friendly.  Rooms are clean and comfortable.  Had a real nice breakfast with lots of choices.  Would recommend.Only problem I had was the self-serve laundry room is terribly hot.More</t>
   </si>
   <si>
+    <t>Kern A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r369567109-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1367,6 +1520,9 @@
     <t>We have been coming to this hotel for at least fifteen years with our teams. They have always been ready for us and very accommodating. There is a Texas Roadhouse, IHOP, Waffle House, Subway, and other restaurants close by.More</t>
   </si>
   <si>
+    <t>masoncrawford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r367574790-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1394,6 +1550,9 @@
     <t>This location is very clean! The breakfast is very good and tasty! FREE! The room/suite was roomy and clean. No problems! Adequate parking. Well lit and very close to I820 Loop!Check in &amp; check out was a breeze!More</t>
   </si>
   <si>
+    <t>Samantha_Michigan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r364054883-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1418,6 +1577,9 @@
     <t>During my vacation. Had a bad night with a friend. This hotel was great for price and quality of hotel. Booked online also checked in 5 minutes later. room was huge. Very clean. Beds so comfy. Glad could end bad night with good sleep. Thank you!More</t>
   </si>
   <si>
+    <t>Darrik J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r323318580-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1445,6 +1607,9 @@
     <t>Such clean rooms, and friendly smiling staff that is very helpful. I stay here at least once a month while in town on business and there are 2 employees that standout the most to me. They are Jennifer and Lucy. I feel like these 2 work everyday because every time i have stayed there I have seen them. They are always so accommodating, and make me feel like family. Always a pleasure.-Darrik :)More</t>
   </si>
   <si>
+    <t>Karmin J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r321930226-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1466,6 +1631,9 @@
     <t>When we walked in to the lobby, I noticed how clean is smelled.  They had decorated for Halloween which was fun - I can't remember any other hotel I've stayed in decorating for a holiday.  I liked it.  Debbie was extremely courteous and helpful throughout our stay.  She is very personable and accommodating.  Our room was as expected and everything was in working order.  The bed, pillows and linens were all comfortable and clean.  There was ample room in the closet and drawers to store our things.  The shower had great water pressure.  All in all, we really enjoyed our stay.More</t>
   </si>
   <si>
+    <t>Lyra Bree H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r313324339-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1661,9 @@
     <t>The day I checked in was a very trying, long, travel day.  I had a jacuzzi suite that I was looking forward to; however the ac went out.  They were very empathetic and very nice; they had to transfer me to a non-jacuzzi suite b/c maintenance had gone for the day.  I was on a business trip and wasn't paying for my own room, so when they offered to give me a deep discount I let them know that I appreciated it but that it wouldn't directly effect my stay.  They instead decided to comp me a few drinks from the happy hour they put on in the evenings, which was very nice of them.  The next day they had the a/c fixed and put me back in the jacuzzi suite for my last night of the stay.  Jennifer and Lucy, as well as the entire staff were very professional, accommodating and nice; they MADE my stay wonderful!More</t>
   </si>
   <si>
+    <t>Vision293</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r307018096-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1520,6 +1691,9 @@
     <t>I was very impressed with the stay here. If you've stayed at different Comfort Suites you know that the configurations can be a tad different, however that should not change the customer service. Debbie as definitely a great help from check in to ensuring that we had everything necessary for an enjoyable stay. Other crew were helpful as well. Another upside is they have a very nice area for washing your clothes, thank God I needed that, however the downside was that the washer machine was down and only the dryer worked because someone apparently didn't know how to put change in the machine. Not pointing fingers thought... Anyway, if you run into this issue the closes place I found was off Denton 377 north I believe. Its about 3 miles off from the freeway and will sit on the right hand side. You can't miss it just keep driving its a stand along. Very nice facility, anyway hotel was very nice, pool was awesome, if you have kids 2 thumbs up it actually was clean and clear! Breakfast was descent. They have a few eateries within in walking distance and you can get some coupons at the front desk for the steak house across the way. Any little bit helps...More</t>
   </si>
   <si>
+    <t>Marc T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r306106809-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1544,6 +1718,9 @@
     <t>The hotel was fine, the room was fine and the breakfast was fine.  Nothing to complain about, but nothing special... with the exception of the outstanding customer service.  I happened to be a late arrival and the desk clerk, Traci, was expecting me.  She knew my name and made sure that everything was exactly as it was supposed to be for my check in.  I told her that I had a dinner reservation and she checked me in promptly and courteously, all while dealing with other customers by phone and in person.  I love dealing with professionals!  Great job, Traci.  I will stay at this hotel again.More</t>
   </si>
   <si>
+    <t>angelaqualls1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r280652693-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1571,6 +1748,9 @@
     <t>I Love this hotel .. also nice customer service and clean rooms . Love to come here to getaway from the kiddos. I  Recommend this to whoever is in the north fort worth part looking for a comfy hotel ...More</t>
   </si>
   <si>
+    <t>Margaret W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r278836094-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1595,6 +1775,9 @@
     <t>Stayed three nights.  Very clean and spacious with quiet rooms.  Great bed, good shower and a very nice morning breakfast down in the Lobby area. The staff were friendly and efficient, especially Jennifer at the Front Desk.  I would recommend this hotel to others and stay there again myself in the future.More</t>
   </si>
   <si>
+    <t>Billy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r277218613-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1622,6 +1805,9 @@
     <t>My wife and I stayed in Comfort Suites Fossil Creek for four nights while floors were being installed in our home. Room was nice, employees were very hospitable and I depend on the internet for my business so the free internet was helpful.All was going fine. On our third day I had to make a trip to Austin for the day and my wife was not feeling well and got progressively worse throughout the day and was very weak and dehydrating.    I did not know what to do so I took a chance and called the hotel and talked to Lucy and asked if they could help by taking up a Sprite or something for her.  Norma then took my wife something to drink and also some Advil.  That was service beyond expected and THANKS to them both for helping in our time of need.Greatly appreciate those at Comfort Suites!More</t>
   </si>
   <si>
+    <t>Sheldon G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r269804288-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1649,6 +1835,9 @@
     <t>awesome stay no complaints what so ever. My family and I stayed at this wonderful hotel in fort worth for a weekend for my daughter and her teammates basketball tournament. I had no problems checking in and the workers at the front desk were very patient and pleasant with me the entire time, I had two separate reservations because i added a extra day at the last minute. I enjoyed the room it was a double queen suite with a extra sleeper sofa, the room included a microwave and fridge. The hotel is located around other hotels and restaurants If you show your room key when dining at the local restaurants surrounding the hotels you will receive 10% off your meal ticket. The hotel is minutes from north east mall which is pretty big and had movie theaters and restaurants within the mall area. I really enjoyed my stay and would highly recommend this hotel to anyone visiting the area. .More</t>
   </si>
   <si>
+    <t>Tiersa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r259290263-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1676,6 +1865,9 @@
     <t>We stayed here overnight for a getaway in Ft. Worth and it did the job.  We have young children and we just needed a landing spot for them to relax when the walking of the day trip got to be too much for them. I made the reservation through Groupon and they couldn't find it at first.  I showed them my groupon reservation and they told me it wouldn't be a problem.  The hotel is clean.  The room we stayed in was a double with a sofa bed, so there was plenty of room for my family of 6.  The WI-FI was free and it worked perfectly the night we were there.  The ice machine on the second floor was broken though.  The next morning we went down to breakfast and it was your standard fare.  They have a waffle maker and they also served sausage and eggs.  The rest of the breakfast was pretty continental.  The location was about 20 minutes from Sundance Square.  I'd say if you have a car during your trip to Ft. Worth, this would be a good location.  Otherwise, I'd stay somewhere closer to public transportation.All in all, it was good for an overnight stay.More</t>
   </si>
   <si>
+    <t>SpringLakeFarmgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r255887078-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1703,6 +1895,9 @@
     <t>This is a nice hotel for the mid range option.  Breakfast is standard fare, plus a few extras. Bananas, apples and oranges and several types of pastries along with the normal bacon or sausage and eggs.  HOWEVER, if you need to use the internet - dream on.  It was down more than it was up and when it did come up, only CNN would work?  How inconvenient for anyone trying to get some work done!  When asking the front desk to reboot the servers, they were accommodating, but it seldom worked.More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r255471606-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1727,6 +1922,9 @@
     <t>The staff is very accomodating and the room was great.  Very large and comfortable with room to spare.  Free full breakfast was ver well prepared.  This one is on my regular places to stay for an overnight getaway with my wife!!!!!More</t>
   </si>
   <si>
+    <t>Debbie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r254486521-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1754,6 +1952,9 @@
     <t>Just staying for one night, we found this to have one of the most comfortable mattresses I have slept on in a hotel for a long time.  The rooms were clean.  The breakfast had variety and also had some hot food options.  I would definitely stay here again when traveling to the area.More</t>
   </si>
   <si>
+    <t>traveler-pair</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r254385909-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1778,6 +1979,9 @@
     <t>Ths place is wonderful ,very comfortable and very clean the beds are very comfortable ,the linens are in new condition , the staff is very friendly and helpful and the breakfast was wonderful best bisquits we've ever had in a hotel the gravy was great.More</t>
   </si>
   <si>
+    <t>William S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r252672593-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1802,6 +2006,9 @@
     <t>On Jan 28 and 29 we stayed at this facility.  The stay was great, so was the staff, the breakfasts, the registration, and the check-out.  We were totally relaxed.  The manager and the staff made us feel extremely at ease.  This atmosphere was contagious and the other patrons were friendly and considerate, relaxed, and conversational.  All in all, our stay was a delightful experience.  The cost for our stay was surprisingly .reasonable, especially for the quality of the stay, the facilities, and the overall experience.Thank you, William G SloneckerMore</t>
   </si>
   <si>
+    <t>ck10309</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r219343280-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1829,6 +2036,9 @@
     <t>Rooms nice size, with very comfortable beds. We had 2 queen suite, that included a small fridge and microwave and a small kitchen table to sit at.  We stayed for 4 days for a softball tournament. Had a great room rate and great room. Overall, all the parents and kids were happy. Had a good pool and hot tub for the kiddos. Was within walking distance to about 5 restaurants, and about 10 min. away from a grocery store. Best thing was the hotel service. We pre-paid for a 7 day trip, our team lost out early and they let us cancel the morning of and get all of our money back!More</t>
   </si>
   <si>
+    <t>Rena S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r216702207-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1853,6 +2063,9 @@
     <t>After being sent here by The Renaissance Marriott in Downtown Ft. Worth with my co-workers (24 of us), after the Marriott did not honor our reservation, we were welcomed by 2 very nice front desk clerks and a Manager. They really understood that we would likely not be in the best mood after our nightmare ordeal at the Marriott, and were SO accommodating. My husband and I were even upgraded to a King Jacuzzi Suite. Although, we are still disappointed to not be in the heart of Ft. Worth close to our conference, we are so grateful that there is still a hotel that cares about customer service after being so poorly treated at what is supposed to be a high-end hotel. Free wifi &amp; parking unlike the other hotel.More</t>
   </si>
   <si>
+    <t>txdorsey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r210854659-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1880,6 +2093,9 @@
     <t>This is a nice property.  Rooms are large and well kept.  There are a lot of other hotels in the same area, a couple of dining choices, a gas station and a lower end strip mall.  Lots of trucks and construction workers, but even so, the room was exceptionally quiet.  The air conditioning worked perfectly and the beds are very, very comfortable.  The pool looked nice but we didn't try use it.  Nice breakfast area.More</t>
   </si>
   <si>
+    <t>tomwklose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r207019177-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1907,6 +2123,9 @@
     <t>We had the opportunity to stay twice at this hotel in the past two weeks.  We were in Fort Worth, TX visiting family and friends.  The first time we stayed there was a problem with the phone.  The staff moved us right away to another room.  It was very comfortable, in fact my wife commented how well she slept the first night.  We stayed there three nights.   Breakfast was a choice of eggs, sausage, waffles (in the shape of Texas), along with various fruit choices, cereals, and on occasion biscuits and gravy.we've been left headed south to Austin and visited some friends.when we returned we stayed 2 more days and again had great service and good food. I would recommend this place for anyone traveling and need a good nights rest. I will say that many use this hotel as well but all were courteous and kind to us as well as the staff. The price is very affordable.More</t>
   </si>
   <si>
+    <t>AirframeGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r205387397-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1934,6 +2153,9 @@
     <t>An unexpected event while buying a house and moving left my wife and I and our 8 yr old daughter without a place to stay for a week and with a LOT of extra gear in tow. Location drove the choice to stay here and we were very pleased with the friendly staff and clean room. Would definitely choose a Comfort Suites location again.More</t>
   </si>
   <si>
+    <t>eichen47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r185729577-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1961,6 +2183,9 @@
     <t>Excellent spacious suites that are like new. Spent two nights. Great staff Lucy , Jenna and Jennifer. Rooms very clean. great Breakfast- eggs -sausage-biscuit gravy(not to peppered)-belgian wafflesand the rest of basics, kept clean-pleasant staff. Over al rating EXCELLENT.More</t>
   </si>
   <si>
+    <t>sunny h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r182881012-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1988,6 +2213,9 @@
     <t>Excellent stay and the staff is very friendly and helpful. I will definitely be staying here on all my trips. Customer service is awesome and efficient. Very clean rooms and the complimentary breakfast is a plus.More</t>
   </si>
   <si>
+    <t>Andijoanch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r180850071-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2012,6 +2240,9 @@
     <t>We stayed here for our anniversary to see Chris Young at Billy Bobs. The young lady Jennifer at front desk was wonderful and friendly. Was next to a Waffle House. Room was wonderful and breakfast was great and hot!!!More</t>
   </si>
   <si>
+    <t>MUJTABA1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r180644888-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2036,6 +2267,9 @@
     <t>This is best hotel I have ever stayed, great location according to my requirement. The front desk lady I did not remember her name, she is a gem, very professional and courteous. Room is very spacious with new vanity, granite tops, built in closet, new drapes and new sofa bed. Breakfast is very good lot of choices and also the lady who serves very humble and polite.More</t>
   </si>
   <si>
+    <t>Prakash K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r178473945-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2060,6 +2294,9 @@
     <t>I was staying in this motel for my daughter’s interview.This motel is very clean, and having great hospitality.  They provide very awesome morning Free Breakfast.  The staff is very helpful.I highly recommend for this motel.More</t>
   </si>
   <si>
+    <t>Samuel P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r172396453-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2087,6 +2324,9 @@
     <t>While coming back to Dallas.I stopped by to take a rest for a night as we had some activities planned  the other day.I had a good experience at your hotel.Staff were able to help me with all the needed for the places around.Continue the good work.More</t>
   </si>
   <si>
+    <t>Coleandwaters</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r170584261-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2111,6 +2351,9 @@
     <t>I come to this location every couple weeks or less to see my partner and stay usually a minimum of 2-3 days!! The staff are always most accommodating in every possible way for us!! We wouldn' t dream of staying any where else to spend our quality time together!! The suites are excellent!! The staff is excellent!! And i would definitely recommend this location and give a 4star rating! Thanx for having my wife and I and always going above and beyond to keep us satisfied and returning customers!! Sincerely...ALISON AND DUSTY WATERS   More</t>
   </si>
   <si>
+    <t>TAWANA L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r169520974-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2138,6 +2381,9 @@
     <t>Had a softball tournament my daughter and i stayed there for 4 days ,the management and staff was very friendly, helpful and professional they made us feel like we where at home.The housekeeper clean our room each day ,when i was gone away,they had it nice and clean organized I was very grateful that i had a opportunity to stay there.Tawana LonnettMore</t>
   </si>
   <si>
+    <t>Gail B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r168904581-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2165,6 +2411,9 @@
     <t>I spent 30 days at this Comfort Suites and had great service and was very pleased with the staff and facility.  They are in the process of upgrading much of the property and I was in a very nice, updated room.  Management was most accommodating and I had no challenges.  It was just a very pleasant experience.More</t>
   </si>
   <si>
+    <t>Kevin A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r168089374-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2189,6 +2438,9 @@
     <t>The management &amp; employees at this hotel are amazing.From day 1 they have treated me &amp; all WB employees with respect,&amp; care.They always find a way to accommodate us no matter what it takes.The rooms are always clean,&amp; never smell,which is a big problem at most hotels.We are grateful that we have had an opportunity to do business with such a great place &amp; people who actually give a damn about customer service.Thank you guys at The Comfort Suite North!!Kevin-WBCCIMore</t>
   </si>
   <si>
+    <t>Myfre23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r155134711-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2213,6 +2465,9 @@
     <t>Most of the staff was great. The manager, pretty black lady (i don't remember her name) was fantastic.  She always had a smile.  Another lady, Rianna, was really friendly as well. One staff lady was too dry and unfriendly.  She is a young  mexican lady that was always talking to a male guest. Every single day we were there  She had the radio blasting and never smiled. Her attitude did not match the other ladies. On a better note, The breakfast was good.  The real problem is that this hotel is worn down. Old, old, old!!!!! Price is too high for such a run down hotel. More</t>
   </si>
   <si>
+    <t>Haras W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r154534028-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2234,6 +2489,9 @@
     <t>I stayed here with my boyfriend and a friend because it was much cheaper than the hotel where the conference we were in town for was held. It was spacious! We had a whole sitting area. Double sinks and a separate room for the toilet/shower. Beds were comfy. The only things I did not care for were:1) Saw and smelled mold in the shower (up high, away from guests, but still visible and definitely had a mildew/moldy smell)2) Front desk people were kind of rude. Barely looked up when we came and went. We came in late one night and the front desk person had to let us in and she didn't even bother to check that we were guests there. Safe.3) The front desk person (different one) was watching shows on her computer with a creepy looking male for most of one night.Other than those things, which didn't really affect me too much, it was a good trip. Construction in the area is a minor nightmare. Good for the $$.More</t>
   </si>
   <si>
+    <t>Sajjad A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r154029122-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2261,6 +2519,9 @@
     <t>Our family stayed here for a night and what can I say, we were all very highly impressed with the front-desk staff, house-keeping, the catering lady at the breakfast buffet as well as management.The front desk lady checked us in with a very upbeat attitude and gave us a very nice room that my family enjoyed. The beds were cozy and the room was the biggest I've been to in relation to any suites out there. I mean the room was HUGE. We needed extra blanket and pillows and housekeeping promptly delivered it and asked to call them back if we needed anything else.Me and my family will make this Comfort Suite a chioce of our stay next time we are in the Fort Worth area. Kudos to the entire team for making our stay a wonderful one.More</t>
   </si>
   <si>
+    <t>Debby76</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r153088545-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2288,6 +2549,9 @@
     <t>Spacious and clean rooms with a small kitchen!Warm welcome with free drinks and snacks.Very helpfull and friendly staff! Had to check out a bit later because of a damaged car and the staff was very helpfull!Need a restaurant? Great steakhouse just next to this hotel!More</t>
   </si>
   <si>
+    <t>markhartNL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r145001903-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2315,6 +2579,9 @@
     <t>Suites are located near major highways. Rooms are spacious and relatively clean. They offer a small kitchen and sitting area. Hotel staff is very friendly and willing to help. Breakfast buffet is of good quality and has sufficient choice.More</t>
   </si>
   <si>
+    <t>Fred v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r144604971-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2339,6 +2606,9 @@
     <t>The hotel looks very open and friendly. The rooms are very spacy with a small kitchen area and a cosy sitting area. Unfortunately on the morning of check out we found that our car was damaged overnight. Most likely this happened when the local Red Neck Heaven Bar closed for the night and one of the drunk rednecks tried to drive home. We will never know as there was no note left behind and there are no cameras on the parking lot.Nevertheless, the lady at reception was most kind and helpfull and assisted in every way she could. We are still thankfull for her help. Unfortunately we have forgotten here name but she deserves a big THANKS!More</t>
   </si>
   <si>
+    <t>Serrano245</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r143031051-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2357,6 +2627,9 @@
     <t>My husband and I (plus 3 kids) stayed here for 3 nights while our home was remodeled. Staff is very polite and helpful. Kayla was the most helpful. I called around for an entire day looking for a good rate, as this is one of many hotels in the area, and this was the best rate. I was REALLY surprised to find it was very clean and comfortable. The room didn't have that weird 'hotel smell' you sometimes get. It was very quiet and I happen to know they were pretty booked. My kids loved it here. Complimentary breakfast until 9:30, clean towels and linens at no extra fees (other hotels in the area have service fees'). Overall it was a great experience. I will stay here again.More</t>
   </si>
   <si>
+    <t>badman525</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r140045517-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2384,6 +2657,9 @@
     <t>Nice clean room.  Friendly staff.  Convenient to local attractions.  Plenty of eating choices within short drive distance.  Three choices within walking distance including Texas Roadhouse.  Good place for overnight or business traveler.  AC cold and on in the room when I arrived.  No complaints.  Front desk fast and efficient.More</t>
   </si>
   <si>
+    <t>Miranda T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r134868265-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2409,6 +2685,9 @@
   </si>
   <si>
     <t>I had originally booked this hotel stay through a separate website to "get a good deal" but we had an emergency come up that we were not going to be able to stay there the nights we had planned. I had to call the company I booked our rooms through to cancel our reservation and was going to lose all of the money we had paid. But when I called the hotel and told them the situation they were eager to help and we ended up getting a full refund. Had it not been for the awesome desk clerk we would have been  S.O.L, we were able to book a couple nights there when we were finally able to make it and the stay was very pleasant. Our kids loved the pool, the rooms were clean and the beds were comfortable. We will be staying there again if we ever need to :)More</t>
+  </si>
+  <si>
+    <t>VinGins</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r133193804-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -2431,6 +2710,9 @@
 So, yesterday, when we check in, I explain the 20% offer to the person at the front desk and he rejects my insistence and won't be bothered to read the correspondence to confirm this. He basically told me that with my AAA discount I was already getting a good rate. I grow weary of customer service that turns around a grievance as somehow being my misinterpretation of the facts. When asked to speak to the manager, I am told he won't be in until after the weekend. We are running late for an engagement,  so we take the key, drop off our belongings in the room and are dumbfounded that the room is not only hot and stuffy, but it smells of cigarettes in our no smoking...We had stayed at this CS just over a month ago and gave it a satisfactory review. Our only real complaint was the poor AC and "stuffiness" of the room. Granted, it is Texas in the summer, but we prefer to leave the poor air quality outside. That is part of what we pay for when we chose a hotel. So...the manager, Mohammad, sends me a courteous email thanking me for bringing the AC issue to his attention. He offers me a 20% on my next stay (whether we book it through Choice or through the hotel itself). I do a lot of travelling and generally always book through Choice for the rewards. So, yesterday, when we check in, I explain the 20% offer to the person at the front desk and he rejects my insistence and won't be bothered to read the correspondence to confirm this. He basically told me that with my AAA discount I was already getting a good rate. I grow weary of customer service that turns around a grievance as somehow being my misinterpretation of the facts. When asked to speak to the manager, I am told he won't be in until after the weekend. We are running late for an engagement,  so we take the key, drop off our belongings in the room and are dumbfounded that the room is not only hot and stuffy, but it smells of cigarettes in our no smoking room. We sprayed the place down with room deodorizer,  cranked the AC, and when we returned later that night fully exhausted, we were relieved to find the room sufficiently cool (but, by no means "cold" and still quite stale). We did notice that the temperature on the second floor hallway felt a good 20 degrees warmer than the lobby and ice machine was not working. There seems to be nothing actually "cool" about this hotel.Here's our take on this place. The beds are great, the rooms are clean, the furnishings are a little dated. Wifi was decent and the breakfast looked to be what we've come to expect from CS (basic grazing). The property appears well maintained, safe, and in a good location. We pass through Fort Worth regurlarly, but we won't be staying here again. The AC issue is bad enough, but being made a promise to win back my business only to be told I should be happy with what I've got is not only unprofessional, it is rude. This made only worse because I was in no way happy with what I got in return for my money...TWICE. So, on second thought, you might wish to reconsider your options when it comes to this particular CS. Otherwise you might end up like I did...losing my cool.More</t>
   </si>
   <si>
+    <t>lauraruth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r114850687-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2449,6 +2731,9 @@
     <t>We were in town for a family wedding and spent a couple of nights here. Our room had been recently smoked in and had that stale smokey smell. I mentioned it to the front desk in hopes of being offered another room but they just shrugged. (There are signs all over declaring this a "smoke free" hotel.)My sister reserved a room with a rollaway bed online and upon arrival was told that they did not have rollaway beds due to some kind of restriction. (Then why is that option available when making a reservation?) Her teenage son slept on the floor for three nights.The free breakfast was meager and less than appetizing. They were out of many things and we came down very early. I am a "choice privileges" member and online and in the hotel information in the room it stated that CP members are welcome to a late, 2pm check out. When I mentioned this at the desk I was initially told no and then grudgingly given an extra hour.This seems like a nice hotel. The pool was clean and shady in the evening hours. There was just no attempt to provide any kind of real customer service. It was disappointing.More</t>
   </si>
   <si>
+    <t>allaboutpadre</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r85884757-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2470,6 +2755,9 @@
     <t>Noticed odor when we checked in, turned on ac and did not think about it again until time for a shower when we noticed mold. Stood on bathtub rim and took pictures of hairy growth black mold which we have had a horrible experience in the past. Brought this to the attention of the manager at check out explained I would be contacting health dept when manager did refund our stay and accuse me of threatening him and his hotel. I stated that this could be the serious type of mold and needed to be checked because we had complained earlier to staff and were shown another room that had same problems.Manager become irate and even hostile so we left and will not return…too bad cause we liked the place we just wanted the health problem corrected and checked by code enforcement.More</t>
   </si>
   <si>
+    <t>roadtriptakers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r34339935-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2491,6 +2779,9 @@
     <t>Travelling with several members of our family including several young adults.  Arrived without reservations and requested multiple rooms within close proximity.  Our requests were met.  Rooms were clean and spacious.  Hotel within walking distance to several restaurants.  Close proximity to freeway to go to stockyards and downtown.  Good breakfast in the morning--snacks out in early afternoon.  Hotel was quiet.  Pool area was clean had ample chairs, towels, and umbrella tables.  We enjoyed our nights stay.  This is not the first time we had stayed in this hotel.  We had reservations at another hotel, but when we passed this on the freeway, we decided to cancel our reservations elsewhere and stay here.  We were not disappointed.More</t>
   </si>
   <si>
+    <t>txbluebonnet32</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r24058942-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2512,6 +2803,9 @@
     <t>My husband booked this room over the phone without my knowledge while we were out to dinner.  The lady at the front desk was kind and when we were not given the room we wanted she happily gave us a new room.  Our room was clean and nice.  Plenty of large fluffy pillows and the comfort of the bed was wonderful.  Lots of space and everything was very clean.  A large breakfast with lots of choices.  The only thing bad I can say is other Hotel guest letting their children take tons of food leaving us to wait for the poor lady to refill everything.  Then while we are waiting watching those children dump all that food into the garbage.  Someone should have spanked their parents.  This hotel was great and I have recommended it to our friends.  One last thing is was great value for the money we spent.  Have paid more and gotten much less from other hotels.More</t>
   </si>
   <si>
+    <t>terri_james</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r5575801-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2539,6 +2833,9 @@
     <t>The carpet in the room we stayed in had a horrible red stain on it aprox. 2 ft in diamater. Really in need of new carpet through out hotel. For the price I expected alot more out of Comfort Suites. Other than that, it was a nice stay.More</t>
   </si>
   <si>
+    <t>TinTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r3796651-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -2555,6 +2852,9 @@
   </si>
   <si>
     <t>It is a nice motel and fairly new and close to several restaurants and attractions.  Our carpet was in pretty bad shape.  My husband is a big man and like a lot of places the sheets simply would not stay on the bed when he rolled over.  The prices ran around $80 and there is a lot of motels just as new if not newer all around that run around $40.  I wished I had known about them and checked into them more.  If a free breakfast is important to you the deluxe breakfast was good.  The waffles you make yourselves, eggs, and bisuits and gravy were good.  They had the usual assortment of bagals and muffins and bread, some fresh fruit, oatmeal and a couple of cereals.  It was nice place, but I felt like for that price I could have gotten an even nicer place or got just as nice a place for almost half the price.  Do your shopping a little bit better than I did.More</t>
+  </si>
+  <si>
+    <t>Bunni29</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d124453-r2852499-Comfort_Suites_North_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -3074,43 +3374,47 @@
       <c r="A2" t="n">
         <v>40169</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3122,56 +3426,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>40169</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>37742</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3187,56 +3495,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>40169</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125704</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3248,56 +3560,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>40169</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125705</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3315,56 +3631,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>40169</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125706</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" t="s">
         <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" t="s">
-        <v>75</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3380,56 +3700,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>40169</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>9697</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3441,56 +3765,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>40169</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125707</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3502,56 +3830,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>40169</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125708</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3563,56 +3895,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>40169</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>3037</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3630,56 +3966,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>40169</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>20269</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3697,56 +4037,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>40169</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3766,50 +4110,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>40169</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>125709</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>132</v>
       </c>
-      <c r="J13" t="s">
-        <v>133</v>
-      </c>
-      <c r="K13" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" t="s">
-        <v>135</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>122</v>
-      </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3821,56 +4169,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>40169</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125710</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3882,56 +4234,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="X14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>40169</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3943,56 +4299,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="X15" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>40169</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>11375</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -4010,56 +4370,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="X16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>40169</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125711</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4077,50 +4441,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>40169</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125712</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -4138,56 +4506,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>40169</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>125713</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4199,56 +4571,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>40169</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>18935</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s">
+        <v>202</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>180</v>
       </c>
-      <c r="J20" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" t="s">
-        <v>183</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>164</v>
-      </c>
       <c r="O20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4260,56 +4636,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X20" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>40169</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>40699</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4327,56 +4707,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>40169</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>20269</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -4394,56 +4778,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>40169</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125714</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4455,56 +4843,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="X23" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>40169</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>2649</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4516,56 +4908,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="X24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>40169</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>125715</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4577,56 +4973,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>40169</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125716</v>
+      </c>
+      <c r="C26" t="s">
+        <v>249</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="O26" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4638,56 +5038,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="X26" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>40169</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125717</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4699,56 +5103,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="X27" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>40169</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>26567</v>
+      </c>
+      <c r="C28" t="s">
+        <v>263</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4760,56 +5168,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="X28" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>40169</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125718</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4821,56 +5233,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="X29" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>40169</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125719</v>
+      </c>
+      <c r="C30" t="s">
+        <v>280</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4882,56 +5298,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="X30" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>40169</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125720</v>
+      </c>
+      <c r="C31" t="s">
+        <v>289</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4943,56 +5363,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="X31" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="Y31" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>40169</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>8427</v>
+      </c>
+      <c r="C32" t="s">
+        <v>298</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5004,56 +5428,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="X32" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="Y32" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>40169</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>3282</v>
+      </c>
+      <c r="C33" t="s">
+        <v>308</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="K33" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5065,56 +5493,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="X33" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="Y33" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>40169</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125721</v>
+      </c>
+      <c r="C34" t="s">
+        <v>318</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="O34" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5126,56 +5558,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="X34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="Y34" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>40169</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>2594</v>
+      </c>
+      <c r="C35" t="s">
+        <v>327</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="J35" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="K35" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5187,56 +5623,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="X35" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>40169</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125722</v>
+      </c>
+      <c r="C36" t="s">
+        <v>334</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="K36" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="L36" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5248,56 +5688,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="X36" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="Y36" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>40169</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125723</v>
+      </c>
+      <c r="C37" t="s">
+        <v>343</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="J37" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="K37" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5313,56 +5757,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="X37" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="Y37" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>40169</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125724</v>
+      </c>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="J38" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="K38" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="L38" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="O38" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -5378,56 +5826,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="X38" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="Y38" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>40169</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125725</v>
+      </c>
+      <c r="C39" t="s">
+        <v>363</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="J39" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="K39" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5445,56 +5897,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="X39" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>40169</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125726</v>
+      </c>
+      <c r="C40" t="s">
+        <v>372</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="J40" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="L40" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="O40" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -5512,56 +5968,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="X40" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="Y40" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>40169</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>9010</v>
+      </c>
+      <c r="C41" t="s">
+        <v>380</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="J41" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="K41" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="L41" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="O41" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5579,56 +6039,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="X41" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="Y41" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>40169</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125727</v>
+      </c>
+      <c r="C42" t="s">
+        <v>389</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="J42" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="K42" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="L42" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="O42" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5646,56 +6110,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="X42" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="Y42" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>40169</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>125728</v>
+      </c>
+      <c r="C43" t="s">
+        <v>398</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="J43" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="K43" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="L43" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="O43" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5707,56 +6175,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="X43" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="Y43" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>40169</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>18284</v>
+      </c>
+      <c r="C44" t="s">
+        <v>409</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="J44" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="K44" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="L44" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5774,56 +6246,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="X44" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="Y44" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>40169</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>6482</v>
+      </c>
+      <c r="C45" t="s">
+        <v>418</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="O45" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5835,56 +6311,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="X45" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="Y45" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>40169</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125729</v>
+      </c>
+      <c r="C46" t="s">
+        <v>428</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="J46" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="K46" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="L46" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5902,56 +6382,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="X46" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="Y46" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>40169</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125730</v>
+      </c>
+      <c r="C47" t="s">
+        <v>438</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="J47" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="K47" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="L47" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O47" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5969,56 +6453,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="X47" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="Y47" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>40169</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>125731</v>
+      </c>
+      <c r="C48" t="s">
+        <v>445</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="J48" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="K48" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="L48" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O48" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6036,50 +6524,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>40169</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125732</v>
+      </c>
+      <c r="C49" t="s">
+        <v>450</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="J49" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="K49" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="L49" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O49" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6095,56 +6587,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="X49" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="Y49" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>40169</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125733</v>
+      </c>
+      <c r="C50" t="s">
+        <v>457</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="J50" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="K50" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="L50" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -6160,56 +6656,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="X50" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="Y50" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>40169</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125705</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="J51" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="K51" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="L51" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="O51" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -6227,47 +6727,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="X51" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="Y51" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>40169</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>21811</v>
+      </c>
+      <c r="C52" t="s">
+        <v>472</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="J52" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="K52" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="L52" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -6284,56 +6788,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="X52" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="Y52" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>40169</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125734</v>
+      </c>
+      <c r="C53" t="s">
+        <v>479</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="J53" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="K53" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="L53" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6351,56 +6859,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="X53" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="Y53" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>40169</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125735</v>
+      </c>
+      <c r="C54" t="s">
+        <v>489</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="J54" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="K54" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="L54" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O54" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6416,56 +6928,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="X54" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="Y54" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>40169</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125736</v>
+      </c>
+      <c r="C55" t="s">
+        <v>498</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="J55" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="K55" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="L55" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="O55" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6477,56 +6993,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="X55" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="Y55" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>40169</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>125737</v>
+      </c>
+      <c r="C56" t="s">
+        <v>508</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="J56" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="K56" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="L56" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="O56" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6538,56 +7058,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="X56" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="Y56" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>40169</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125738</v>
+      </c>
+      <c r="C57" t="s">
+        <v>517</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="J57" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="K57" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="L57" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="O57" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6603,56 +7127,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="X57" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="Y57" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>40169</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>23479</v>
+      </c>
+      <c r="C58" t="s">
+        <v>527</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="J58" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="K58" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="L58" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6668,56 +7196,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="X58" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="Y58" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>40169</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125739</v>
+      </c>
+      <c r="C59" t="s">
+        <v>535</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="J59" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="K59" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="L59" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="O59" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6733,56 +7265,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="X59" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="Y59" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>40169</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>125740</v>
+      </c>
+      <c r="C60" t="s">
+        <v>545</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="J60" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="K60" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="L60" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="O60" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6800,56 +7336,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="X60" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="Y60" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>40169</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>28677</v>
+      </c>
+      <c r="C61" t="s">
+        <v>555</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="J61" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="K61" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="L61" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="O61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6865,56 +7405,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="X61" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="Y61" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>40169</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>125741</v>
+      </c>
+      <c r="C62" t="s">
+        <v>564</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="J62" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="K62" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="L62" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="O62" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -6926,56 +7470,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="X62" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
       <c r="Y62" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>40169</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>19683</v>
+      </c>
+      <c r="C63" t="s">
+        <v>574</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="J63" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="K63" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="L63" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="O63" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6993,56 +7541,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="X63" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
       <c r="Y63" t="s">
-        <v>522</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>40169</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>15136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>583</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="J64" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="K64" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="L64" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>528</v>
+        <v>589</v>
       </c>
       <c r="O64" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -7060,56 +7612,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>529</v>
+        <v>590</v>
       </c>
       <c r="X64" t="s">
-        <v>530</v>
+        <v>591</v>
       </c>
       <c r="Y64" t="s">
-        <v>531</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>40169</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>9702</v>
+      </c>
+      <c r="C65" t="s">
+        <v>593</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="J65" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="K65" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="L65" t="s">
-        <v>536</v>
+        <v>598</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>537</v>
+        <v>599</v>
       </c>
       <c r="O65" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7127,56 +7683,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="X65" t="s">
-        <v>539</v>
+        <v>601</v>
       </c>
       <c r="Y65" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>40169</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>66754</v>
+      </c>
+      <c r="C66" t="s">
+        <v>603</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="J66" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
       <c r="K66" t="s">
-        <v>544</v>
+        <v>607</v>
       </c>
       <c r="L66" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="O66" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7194,56 +7754,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="X66" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="Y66" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>40169</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>125742</v>
+      </c>
+      <c r="C67" t="s">
+        <v>613</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="J67" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="K67" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="L67" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="O67" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -7261,56 +7825,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="X67" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="Y67" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>40169</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>304</v>
+      </c>
+      <c r="C68" t="s">
+        <v>623</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="J68" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="K68" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="L68" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="n">
@@ -7328,56 +7896,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
       <c r="X68" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="Y68" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>40169</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>13740</v>
+      </c>
+      <c r="C69" t="s">
+        <v>632</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="J69" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="K69" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="L69" t="s">
-        <v>571</v>
+        <v>637</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="n">
@@ -7393,56 +7965,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>573</v>
+        <v>639</v>
       </c>
       <c r="X69" t="s">
-        <v>574</v>
+        <v>640</v>
       </c>
       <c r="Y69" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>40169</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>125743</v>
+      </c>
+      <c r="C70" t="s">
+        <v>642</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>577</v>
+        <v>644</v>
       </c>
       <c r="J70" t="s">
-        <v>578</v>
+        <v>645</v>
       </c>
       <c r="K70" t="s">
-        <v>579</v>
+        <v>646</v>
       </c>
       <c r="L70" t="s">
-        <v>580</v>
+        <v>647</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="O70" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7460,56 +8036,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>581</v>
+        <v>648</v>
       </c>
       <c r="X70" t="s">
-        <v>582</v>
+        <v>649</v>
       </c>
       <c r="Y70" t="s">
-        <v>583</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>40169</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>651</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>585</v>
+        <v>653</v>
       </c>
       <c r="J71" t="s">
-        <v>586</v>
+        <v>654</v>
       </c>
       <c r="K71" t="s">
-        <v>587</v>
+        <v>655</v>
       </c>
       <c r="L71" t="s">
-        <v>588</v>
+        <v>656</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>572</v>
+        <v>638</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7527,56 +8107,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="X71" t="s">
-        <v>590</v>
+        <v>658</v>
       </c>
       <c r="Y71" t="s">
-        <v>591</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>40169</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>125744</v>
+      </c>
+      <c r="C72" t="s">
+        <v>660</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>593</v>
+        <v>662</v>
       </c>
       <c r="J72" t="s">
-        <v>594</v>
+        <v>663</v>
       </c>
       <c r="K72" t="s">
-        <v>595</v>
+        <v>664</v>
       </c>
       <c r="L72" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="O72" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7590,56 +8174,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>598</v>
+        <v>667</v>
       </c>
       <c r="X72" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="Y72" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>40169</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>125745</v>
+      </c>
+      <c r="C73" t="s">
+        <v>670</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
       <c r="J73" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
       <c r="K73" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
       <c r="L73" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>597</v>
+        <v>666</v>
       </c>
       <c r="O73" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="n">
@@ -7657,56 +8245,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="X73" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="Y73" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>40169</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>22359</v>
+      </c>
+      <c r="C74" t="s">
+        <v>679</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>609</v>
+        <v>680</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>610</v>
+        <v>681</v>
       </c>
       <c r="J74" t="s">
-        <v>611</v>
+        <v>682</v>
       </c>
       <c r="K74" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="L74" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="O74" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7718,56 +8310,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="X74" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="Y74" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>40169</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>125746</v>
+      </c>
+      <c r="C75" t="s">
+        <v>689</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="J75" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="K75" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="L75" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="O75" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7789,56 +8385,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="X75" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="Y75" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>40169</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>125747</v>
+      </c>
+      <c r="C76" t="s">
+        <v>699</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="J76" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="K76" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="L76" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="O76" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7850,56 +8450,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="X76" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="Y76" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>40169</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>18211</v>
+      </c>
+      <c r="C77" t="s">
+        <v>709</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="J77" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="K77" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="L77" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="O77" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7921,56 +8525,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="X77" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
       <c r="Y77" t="s">
-        <v>644</v>
+        <v>718</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>40169</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>125748</v>
+      </c>
+      <c r="C78" t="s">
+        <v>719</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="J78" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="K78" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="L78" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="O78" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7992,47 +8600,51 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="X78" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="Y78" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>40169</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>125749</v>
+      </c>
+      <c r="C79" t="s">
+        <v>729</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="J79" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="K79" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="L79" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -8059,56 +8671,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="X79" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="Y79" t="s">
-        <v>661</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>40169</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>125750</v>
+      </c>
+      <c r="C80" t="s">
+        <v>738</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="J80" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="K80" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="L80" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="O80" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8130,56 +8746,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
       <c r="X80" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
       <c r="Y80" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>40169</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>125751</v>
+      </c>
+      <c r="C81" t="s">
+        <v>747</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
       <c r="J81" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="K81" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="L81" t="s">
-        <v>674</v>
+        <v>752</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="O81" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8201,56 +8821,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>675</v>
+        <v>753</v>
       </c>
       <c r="X81" t="s">
-        <v>676</v>
+        <v>754</v>
       </c>
       <c r="Y81" t="s">
-        <v>677</v>
+        <v>755</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>40169</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>14064</v>
+      </c>
+      <c r="C82" t="s">
+        <v>756</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>678</v>
+        <v>757</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J82" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="K82" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="L82" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="O82" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="n">
@@ -8270,47 +8894,51 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="X82" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="Y82" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>40169</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>125752</v>
+      </c>
+      <c r="C83" t="s">
+        <v>766</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>687</v>
+        <v>767</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>688</v>
+        <v>768</v>
       </c>
       <c r="J83" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
       <c r="K83" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="L83" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
@@ -8337,56 +8965,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="X83" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="Y83" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>40169</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>125753</v>
+      </c>
+      <c r="C84" t="s">
+        <v>775</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>695</v>
+        <v>776</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>696</v>
+        <v>777</v>
       </c>
       <c r="J84" t="s">
-        <v>697</v>
+        <v>778</v>
       </c>
       <c r="K84" t="s">
-        <v>698</v>
+        <v>779</v>
       </c>
       <c r="L84" t="s">
-        <v>699</v>
+        <v>780</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
       <c r="O84" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8408,56 +9040,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
       <c r="X84" t="s">
-        <v>702</v>
+        <v>783</v>
       </c>
       <c r="Y84" t="s">
-        <v>703</v>
+        <v>784</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>40169</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>5910</v>
+      </c>
+      <c r="C85" t="s">
+        <v>785</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>704</v>
+        <v>786</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="J85" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="K85" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
       <c r="L85" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>709</v>
+        <v>791</v>
       </c>
       <c r="O85" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8479,56 +9115,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>710</v>
+        <v>792</v>
       </c>
       <c r="X85" t="s">
-        <v>711</v>
+        <v>793</v>
       </c>
       <c r="Y85" t="s">
-        <v>712</v>
+        <v>794</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>40169</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>35651</v>
+      </c>
+      <c r="C86" t="s">
+        <v>795</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>713</v>
+        <v>796</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="J86" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
       <c r="K86" t="s">
-        <v>716</v>
+        <v>799</v>
       </c>
       <c r="L86" t="s">
-        <v>717</v>
+        <v>800</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
       <c r="O86" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8540,47 +9180,51 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>718</v>
+        <v>801</v>
       </c>
       <c r="X86" t="s">
-        <v>719</v>
+        <v>802</v>
       </c>
       <c r="Y86" t="s">
-        <v>720</v>
+        <v>803</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>40169</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>125754</v>
+      </c>
+      <c r="C87" t="s">
+        <v>804</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>722</v>
+        <v>806</v>
       </c>
       <c r="J87" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="K87" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
       <c r="L87" t="s">
-        <v>725</v>
+        <v>809</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
@@ -8607,56 +9251,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>726</v>
+        <v>810</v>
       </c>
       <c r="X87" t="s">
-        <v>727</v>
+        <v>811</v>
       </c>
       <c r="Y87" t="s">
-        <v>728</v>
+        <v>812</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>40169</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>125755</v>
+      </c>
+      <c r="C88" t="s">
+        <v>813</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>729</v>
+        <v>814</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>730</v>
+        <v>815</v>
       </c>
       <c r="J88" t="s">
-        <v>731</v>
+        <v>816</v>
       </c>
       <c r="K88" t="s">
-        <v>732</v>
+        <v>817</v>
       </c>
       <c r="L88" t="s">
-        <v>733</v>
+        <v>818</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>734</v>
+        <v>819</v>
       </c>
       <c r="O88" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8678,56 +9326,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>726</v>
+        <v>810</v>
       </c>
       <c r="X88" t="s">
-        <v>727</v>
+        <v>811</v>
       </c>
       <c r="Y88" t="s">
-        <v>735</v>
+        <v>820</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>40169</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>125756</v>
+      </c>
+      <c r="C89" t="s">
+        <v>821</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>737</v>
+        <v>823</v>
       </c>
       <c r="J89" t="s">
-        <v>738</v>
+        <v>824</v>
       </c>
       <c r="K89" t="s">
-        <v>739</v>
+        <v>825</v>
       </c>
       <c r="L89" t="s">
-        <v>740</v>
+        <v>826</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>741</v>
+        <v>827</v>
       </c>
       <c r="O89" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8749,56 +9401,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>742</v>
+        <v>828</v>
       </c>
       <c r="X89" t="s">
-        <v>743</v>
+        <v>829</v>
       </c>
       <c r="Y89" t="s">
-        <v>744</v>
+        <v>830</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>40169</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>8524</v>
+      </c>
+      <c r="C90" t="s">
+        <v>831</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>745</v>
+        <v>832</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>746</v>
+        <v>833</v>
       </c>
       <c r="J90" t="s">
-        <v>747</v>
+        <v>834</v>
       </c>
       <c r="K90" t="s">
-        <v>748</v>
+        <v>835</v>
       </c>
       <c r="L90" t="s">
-        <v>749</v>
+        <v>836</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>750</v>
+        <v>837</v>
       </c>
       <c r="O90" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8820,56 +9476,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>751</v>
+        <v>838</v>
       </c>
       <c r="X90" t="s">
-        <v>752</v>
+        <v>839</v>
       </c>
       <c r="Y90" t="s">
-        <v>753</v>
+        <v>840</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>40169</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>125757</v>
+      </c>
+      <c r="C91" t="s">
+        <v>841</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>754</v>
+        <v>842</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>755</v>
+        <v>843</v>
       </c>
       <c r="J91" t="s">
-        <v>756</v>
+        <v>844</v>
       </c>
       <c r="K91" t="s">
-        <v>757</v>
+        <v>845</v>
       </c>
       <c r="L91" t="s">
-        <v>758</v>
+        <v>846</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>759</v>
+        <v>847</v>
       </c>
       <c r="O91" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8891,56 +9551,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>760</v>
+        <v>848</v>
       </c>
       <c r="X91" t="s">
-        <v>761</v>
+        <v>849</v>
       </c>
       <c r="Y91" t="s">
-        <v>762</v>
+        <v>850</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>40169</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>8563</v>
+      </c>
+      <c r="C92" t="s">
+        <v>851</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>764</v>
+        <v>853</v>
       </c>
       <c r="J92" t="s">
-        <v>765</v>
+        <v>854</v>
       </c>
       <c r="K92" t="s">
-        <v>766</v>
+        <v>855</v>
       </c>
       <c r="L92" t="s">
-        <v>767</v>
+        <v>856</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>759</v>
+        <v>847</v>
       </c>
       <c r="O92" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8962,47 +9626,51 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="X92" t="s">
-        <v>769</v>
+        <v>858</v>
       </c>
       <c r="Y92" t="s">
-        <v>770</v>
+        <v>859</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>40169</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>125758</v>
+      </c>
+      <c r="C93" t="s">
+        <v>860</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>771</v>
+        <v>861</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>772</v>
+        <v>862</v>
       </c>
       <c r="J93" t="s">
-        <v>773</v>
+        <v>863</v>
       </c>
       <c r="K93" t="s">
-        <v>774</v>
+        <v>864</v>
       </c>
       <c r="L93" t="s">
-        <v>775</v>
+        <v>865</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
@@ -9029,56 +9697,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="X93" t="s">
-        <v>769</v>
+        <v>858</v>
       </c>
       <c r="Y93" t="s">
-        <v>776</v>
+        <v>866</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>40169</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>36043</v>
+      </c>
+      <c r="C94" t="s">
+        <v>867</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="J94" t="s">
-        <v>779</v>
+        <v>870</v>
       </c>
       <c r="K94" t="s">
-        <v>780</v>
+        <v>871</v>
       </c>
       <c r="L94" t="s">
-        <v>781</v>
+        <v>872</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>782</v>
+        <v>873</v>
       </c>
       <c r="O94" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9100,56 +9772,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>783</v>
+        <v>874</v>
       </c>
       <c r="X94" t="s">
-        <v>784</v>
+        <v>875</v>
       </c>
       <c r="Y94" t="s">
-        <v>785</v>
+        <v>876</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>40169</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>125759</v>
+      </c>
+      <c r="C95" t="s">
+        <v>877</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>786</v>
+        <v>878</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>787</v>
+        <v>879</v>
       </c>
       <c r="J95" t="s">
-        <v>788</v>
+        <v>880</v>
       </c>
       <c r="K95" t="s">
-        <v>789</v>
+        <v>881</v>
       </c>
       <c r="L95" t="s">
-        <v>790</v>
+        <v>882</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>791</v>
+        <v>883</v>
       </c>
       <c r="O95" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9171,47 +9847,51 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>792</v>
+        <v>884</v>
       </c>
       <c r="X95" t="s">
-        <v>793</v>
+        <v>885</v>
       </c>
       <c r="Y95" t="s">
-        <v>794</v>
+        <v>886</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>40169</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>125760</v>
+      </c>
+      <c r="C96" t="s">
+        <v>887</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>795</v>
+        <v>888</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>796</v>
+        <v>889</v>
       </c>
       <c r="J96" t="s">
-        <v>797</v>
+        <v>890</v>
       </c>
       <c r="K96" t="s">
-        <v>798</v>
+        <v>891</v>
       </c>
       <c r="L96" t="s">
-        <v>799</v>
+        <v>892</v>
       </c>
       <c r="M96" t="n">
         <v>2</v>
@@ -9238,56 +9918,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>726</v>
+        <v>810</v>
       </c>
       <c r="X96" t="s">
-        <v>727</v>
+        <v>811</v>
       </c>
       <c r="Y96" t="s">
-        <v>800</v>
+        <v>893</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>40169</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>125761</v>
+      </c>
+      <c r="C97" t="s">
+        <v>894</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>801</v>
+        <v>895</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>802</v>
+        <v>896</v>
       </c>
       <c r="J97" t="s">
-        <v>803</v>
+        <v>897</v>
       </c>
       <c r="K97" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="L97" t="s">
-        <v>804</v>
+        <v>898</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>805</v>
+        <v>899</v>
       </c>
       <c r="O97" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -9307,50 +9991,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>806</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>40169</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>30522</v>
+      </c>
+      <c r="C98" t="s">
+        <v>901</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>807</v>
+        <v>902</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>808</v>
+        <v>903</v>
       </c>
       <c r="J98" t="s">
-        <v>809</v>
+        <v>904</v>
       </c>
       <c r="K98" t="s">
-        <v>810</v>
+        <v>905</v>
       </c>
       <c r="L98" t="s">
-        <v>811</v>
+        <v>906</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>812</v>
+        <v>907</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>2</v>
@@ -9372,50 +10060,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>813</v>
+        <v>908</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>40169</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>125762</v>
+      </c>
+      <c r="C99" t="s">
+        <v>909</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="J99" t="s">
-        <v>816</v>
+        <v>912</v>
       </c>
       <c r="K99" t="s">
-        <v>817</v>
+        <v>913</v>
       </c>
       <c r="L99" t="s">
-        <v>818</v>
+        <v>914</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>819</v>
+        <v>915</v>
       </c>
       <c r="O99" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9439,50 +10131,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>820</v>
+        <v>916</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>40169</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>125763</v>
+      </c>
+      <c r="C100" t="s">
+        <v>917</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>821</v>
+        <v>918</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>822</v>
+        <v>919</v>
       </c>
       <c r="J100" t="s">
-        <v>823</v>
+        <v>920</v>
       </c>
       <c r="K100" t="s">
-        <v>824</v>
+        <v>921</v>
       </c>
       <c r="L100" t="s">
-        <v>825</v>
+        <v>922</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>826</v>
+        <v>923</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9506,50 +10202,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>827</v>
+        <v>924</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>40169</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>125764</v>
+      </c>
+      <c r="C101" t="s">
+        <v>925</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>828</v>
+        <v>926</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>829</v>
+        <v>927</v>
       </c>
       <c r="J101" t="s">
-        <v>830</v>
+        <v>928</v>
       </c>
       <c r="K101" t="s">
-        <v>831</v>
+        <v>929</v>
       </c>
       <c r="L101" t="s">
-        <v>832</v>
+        <v>930</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>833</v>
+        <v>931</v>
       </c>
       <c r="O101" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P101" t="n">
         <v>2</v>
@@ -9571,47 +10271,51 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>834</v>
+        <v>932</v>
       </c>
       <c r="X101" t="s">
-        <v>835</v>
+        <v>933</v>
       </c>
       <c r="Y101" t="s">
-        <v>836</v>
+        <v>934</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>40169</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>125765</v>
+      </c>
+      <c r="C102" t="s">
+        <v>935</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>837</v>
+        <v>936</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>838</v>
+        <v>937</v>
       </c>
       <c r="J102" t="s">
-        <v>839</v>
+        <v>938</v>
       </c>
       <c r="K102" t="s">
-        <v>840</v>
+        <v>939</v>
       </c>
       <c r="L102" t="s">
-        <v>841</v>
+        <v>940</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
@@ -9636,47 +10340,51 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>834</v>
+        <v>932</v>
       </c>
       <c r="X102" t="s">
-        <v>835</v>
+        <v>933</v>
       </c>
       <c r="Y102" t="s">
-        <v>842</v>
+        <v>941</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>40169</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>125766</v>
+      </c>
+      <c r="C103" t="s">
+        <v>942</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>843</v>
+        <v>943</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>844</v>
+        <v>944</v>
       </c>
       <c r="J103" t="s">
-        <v>845</v>
+        <v>945</v>
       </c>
       <c r="K103" t="s">
-        <v>846</v>
+        <v>946</v>
       </c>
       <c r="L103" t="s">
-        <v>847</v>
+        <v>947</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
@@ -9695,7 +10403,7 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>847</v>
+        <v>947</v>
       </c>
     </row>
   </sheetData>
